--- a/TestFile/SANPHAMDAO.xlsx
+++ b/TestFile/SANPHAMDAO.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
   <si>
     <t>Dự án</t>
   </si>
@@ -1121,15 +1121,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="20.552380952381" customWidth="1"/>
-    <col min="2" max="2" width="12.447619047619" customWidth="1"/>
-    <col min="3" max="3" width="11.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="10.447619047619" customWidth="1"/>
-    <col min="5" max="5" width="12.552380952381" customWidth="1"/>
-    <col min="6" max="6" width="11.8857142857143" customWidth="1"/>
-    <col min="7" max="7" width="11.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.552380952381" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.447619047619" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.552380952381" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.447619047619" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.552380952381" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.8857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6666666666667" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1287,17 +1287,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="29.7809523809524" customWidth="1"/>
-    <col min="2" max="2" width="16.8857142857143" customWidth="1"/>
-    <col min="3" max="3" width="14.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.7809523809524" customWidth="1"/>
-    <col min="5" max="5" width="10.847619047619" customWidth="1"/>
-    <col min="6" max="6" width="21.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="6.44761904761905" customWidth="1"/>
-    <col min="8" max="8" width="10.7809523809524" customWidth="1"/>
-    <col min="9" max="9" width="8.33333333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="26.7809523809524" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.7809523809524" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.8857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.6666666666667" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7809523809524" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.847619047619" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.3333333333333" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.44761904761905" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.7809523809524" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="8.33333333333333" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.3333333333333" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.7809523809524" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1427,15 +1427,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="20.552380952381" customWidth="1"/>
-    <col min="2" max="2" width="12.447619047619" customWidth="1"/>
-    <col min="3" max="3" width="11.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="10.447619047619" customWidth="1"/>
-    <col min="5" max="5" width="12.552380952381" customWidth="1"/>
-    <col min="6" max="6" width="11.8857142857143" customWidth="1"/>
-    <col min="7" max="7" width="11.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.552380952381" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.447619047619" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.552380952381" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.447619047619" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.552380952381" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.8857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6666666666667" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1593,17 +1593,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="29.7809523809524" customWidth="1"/>
-    <col min="2" max="2" width="16.8857142857143" customWidth="1"/>
-    <col min="3" max="3" width="14.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.7809523809524" customWidth="1"/>
-    <col min="5" max="5" width="10.847619047619" customWidth="1"/>
-    <col min="6" max="6" width="21.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="6.44761904761905" customWidth="1"/>
-    <col min="8" max="8" width="10.7809523809524" customWidth="1"/>
-    <col min="9" max="9" width="8.33333333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="26.7809523809524" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.7809523809524" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.8857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.6666666666667" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7809523809524" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.847619047619" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.3333333333333" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.44761904761905" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.7809523809524" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="8.33333333333333" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.3333333333333" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.7809523809524" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
